--- a/Release/表三：地籍.xlsx
+++ b/Release/表三：地籍.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>受让方*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +628,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -638,15 +674,33 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
       <c r="A3" s="4"/>
